--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b40dccb4ca90aac/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{D11D7BE9-9263-4B4F-9088-420FBBD1BB31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{892BDCD0-C89D-4AAE-81D9-769B323C4F4F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230FCA4-3A59-4283-B6D7-48CA0F2EB20F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2100" windowWidth="18120" windowHeight="12105" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
+    <workbookView xWindow="7035" yWindow="2100" windowWidth="16440" windowHeight="12645" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="治療内容" sheetId="3" r:id="rId3"/>
     <sheet name="診療希望内容" sheetId="5" r:id="rId4"/>
     <sheet name="比較（診療）" sheetId="6" r:id="rId5"/>
+    <sheet name="メニュー一致率" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>catalog_id</t>
     <phoneticPr fontId="1"/>
@@ -195,6 +196,21 @@
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -202,6 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -239,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +266,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,6 +653,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
+      <c r="O2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -851,4 +874,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7709B7-AB4D-4671-9B96-58D907EC3B70}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230FCA4-3A59-4283-B6D7-48CA0F2EB20F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7706B-A765-49CA-BE0B-DFEE42F29287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="2100" windowWidth="16440" windowHeight="12645" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
+    <workbookView xWindow="3165" yWindow="1590" windowWidth="17970" windowHeight="12645" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
     <sheet name="写真" sheetId="2" r:id="rId2"/>
     <sheet name="治療内容" sheetId="3" r:id="rId3"/>
     <sheet name="診療希望内容" sheetId="5" r:id="rId4"/>
-    <sheet name="比較（診療）" sheetId="6" r:id="rId5"/>
+    <sheet name="メニュー比較（診療）" sheetId="6" r:id="rId5"/>
     <sheet name="メニュー一致率" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7706B-A765-49CA-BE0B-DFEE42F29287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB7A1C-2554-4F3B-AC94-E697B5679BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1590" windowWidth="17970" windowHeight="12645" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>catalog_id</t>
     <phoneticPr fontId="1"/>
@@ -211,6 +211,20 @@
   </si>
   <si>
     <t>detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致数</t>
+    <rPh sb="0" eb="3">
+      <t>イッチスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致率</t>
+    <rPh sb="0" eb="3">
+      <t>イッチリツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -878,7 +892,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7709B7-AB4D-4671-9B96-58D907EC3B70}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -894,13 +908,13 @@
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,22 +943,30 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB7A1C-2554-4F3B-AC94-E697B5679BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866338D0-5204-4D1D-AC8D-06DFCF1E62A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>catalog_id</t>
     <phoneticPr fontId="1"/>
@@ -678,7 +678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568850A7-D2D5-41A4-8170-0C522852F826}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -690,7 +690,7 @@
     <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,12 +713,22 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -729,7 +739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD52481-0E90-42DA-BC08-4409311B14D8}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -741,7 +751,7 @@
     <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,12 +774,22 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -780,7 +800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F363C8F6-BE88-4330-BEAE-81DA2E1F0BA4}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -792,7 +812,7 @@
     <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,12 +835,22 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -831,7 +861,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F465F7C-C596-4A97-A71D-3BE7881D2EB4}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -846,12 +876,13 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,14 +905,26 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866338D0-5204-4D1D-AC8D-06DFCF1E62A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D1C62-8477-4539-9837-17FC9A9C697A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
+    <workbookView xWindow="1695" yWindow="555" windowWidth="23415" windowHeight="13590" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="診療希望内容" sheetId="5" r:id="rId4"/>
     <sheet name="メニュー比較（診療）" sheetId="6" r:id="rId5"/>
     <sheet name="メニュー一致率" sheetId="7" r:id="rId6"/>
+    <sheet name="メニュー新旧" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>catalog_id</t>
     <phoneticPr fontId="1"/>
@@ -224,6 +225,36 @@
     <t>一致率</t>
     <rPh sb="0" eb="3">
       <t>イッチリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧件数</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新件数</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他件数</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -743,7 +774,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1016,4 +1047,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ADFA50-E693-4586-A40C-409D00113D99}">
+  <dimension ref="A2:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D1C62-8477-4539-9837-17FC9A9C697A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF93E420-889E-4DB3-9C9C-18122ADB615E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="555" windowWidth="23415" windowHeight="13590" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
+    <workbookView xWindow="4215" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="667" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="メニュー比較（診療）" sheetId="6" r:id="rId5"/>
     <sheet name="メニュー一致率" sheetId="7" r:id="rId6"/>
     <sheet name="メニュー新旧" sheetId="9" r:id="rId7"/>
+    <sheet name="メニュー種別" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>catalog_id</t>
     <phoneticPr fontId="1"/>
@@ -1126,4 +1127,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0D6F-19D8-4DAC-BB4F-9BBEA8678852}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
+++ b/webapp/app/src/app/takahashi/a00100/job/a00100/export/job/request/report/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF93E420-889E-4DB3-9C9C-18122ADB615E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A5FF3-AE5B-4744-A4AA-0D6EAAA35BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="667" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{836F1040-C18A-45FB-A9BD-B291EE272293}"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>catalog_id</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +256,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー区分</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -971,7 +978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1131,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F0D6F-19D8-4DAC-BB4F-9BBEA8678852}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1140,20 +1147,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
